--- a/装修花销.xlsx
+++ b/装修花销.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>项目</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -58,83 +58,111 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>拆旧费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次垃圾清运及地漏、大理石门槛石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合页及导轨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜一体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增项1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙纸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关面板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒灯灯带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室灯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊灯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干区柜子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台铝合金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋浴房和移门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾清运2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晾衣架及其他架子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台水池</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板、浴霸、马桶花洒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一期工程款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二期工程款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>三期工程款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>拆旧费用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次垃圾清运及地漏、大理石门槛石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合页及导轨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>橱柜一体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增项1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙纸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关面板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>热水器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>筒灯灯带</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卧室灯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊灯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>干区柜子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳台铝合金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淋浴房和移门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾清运2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>晾衣架及其他架子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳台水池</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地板、浴霸、马桶花洒</t>
+    <t>美缝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠和奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转给蒋经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转给宾格公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转给其他杂项人员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +211,32 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -205,19 +257,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -254,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,22 +304,33 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -652,19 +702,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="58.75" customWidth="1"/>
     <col min="2" max="2" width="41.75" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -672,253 +723,285 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>-2688</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8">
         <v>-1200</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="14">
         <v>4000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="14">
         <v>26000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="14">
         <v>3000</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="14">
         <v>28500</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="16">
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="14">
         <v>6175</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="14">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="10">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="14">
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="10">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="16">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="16">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8">
-        <v>5144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="8">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="8">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="8">
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="8">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="8">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="B20" s="10">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="14">
+        <v>15855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="14">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="16">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="8">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="8">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="8">
-        <v>15855</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="8">
-        <v>9200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="B24" s="14">
+        <v>9891</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="8">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="8">
-        <v>9891</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="14">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="8">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="16">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="8">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="B27" s="16">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="8">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+      <c r="B28" s="16">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="8">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="8">
+      <c r="B29" s="16">
         <v>726</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="14">
+        <v>13000</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="14">
+        <v>2112</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="10">
+      <c r="A32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="12">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="5"/>
+      <c r="B33" s="4">
         <f ca="1">SUM(INDIRECT("B2:B"&amp;ROW()-1))</f>
-        <v>177875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+        <v>168805</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/装修花销.xlsx
+++ b/装修花销.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>项目</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -163,6 +163,22 @@
   </si>
   <si>
     <t>转给其他杂项人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他各项家具包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜门钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他杂项尾款（宾格和蒋经理帮忙买的东西）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -702,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -980,28 +996,56 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="10">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="10">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B34" s="12">
         <v>1818</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="4">
         <f ca="1">SUM(INDIRECT("B2:B"&amp;ROW()-1))</f>
-        <v>168805</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
+        <v>211139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/装修花销.xlsx
+++ b/装修花销.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>项目</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -179,6 +179,10 @@
   </si>
   <si>
     <t>其他杂项尾款（宾格和蒋经理帮忙买的东西）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本可以省的，这个应该算在买房里面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +252,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,6 +357,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -721,7 +736,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -810,6 +825,10 @@
       <c r="B8" s="16">
         <v>4000</v>
       </c>
+      <c r="D8" s="21"/>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
@@ -828,10 +847,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="20">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
         <v>5000</v>
       </c>
     </row>
@@ -996,18 +1018,18 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="14">
         <v>4334</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="14">
         <v>38000</v>
       </c>
     </row>
@@ -1023,7 +1045,9 @@
       <c r="A35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="12">
+        <v>3300</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
@@ -1035,7 +1059,7 @@
       <c r="A37" s="5"/>
       <c r="B37" s="4">
         <f ca="1">SUM(INDIRECT("B2:B"&amp;ROW()-1))</f>
-        <v>211139</v>
+        <v>209439</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">

--- a/装修花销.xlsx
+++ b/装修花销.xlsx
@@ -736,7 +736,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
